--- a/PB Done.xlsx
+++ b/PB Done.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="53">
   <si>
     <t>Term</t>
   </si>
@@ -655,7 +655,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>10</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>10</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>10</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>10</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>10</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>10</v>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>10</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>10</v>
@@ -2673,7 +2673,7 @@
       <c r="M46" s="11">
         <v>0.6875</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="12">
         <v>195001979</v>
       </c>
     </row>
@@ -2684,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,90 +2773,90 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1110</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
+        <v>114</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>1110</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6">
         <v>114</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="L4" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2892,13 +2892,13 @@
         <v>114</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M5" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>42</v>
@@ -2939,10 +2939,10 @@
         <v>12</v>
       </c>
       <c r="L6" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M6" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>42</v>
@@ -2980,13 +2980,13 @@
         <v>114</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M7" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>42</v>
@@ -3027,10 +3027,10 @@
         <v>14</v>
       </c>
       <c r="L8" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M8" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>42</v>
@@ -3068,13 +3068,13 @@
         <v>114</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M9" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>42</v>
@@ -3115,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="L10" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M10" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>42</v>
@@ -3141,28 +3141,28 @@
         <v>41</v>
       </c>
       <c r="F11" s="6">
-        <v>1110</v>
+        <v>1210</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="6">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M11" s="7">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>42</v>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>10</v>
@@ -3203,10 +3203,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M12" s="7">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>42</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>10</v>
@@ -3244,13 +3244,13 @@
         <v>116</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M13" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>42</v>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>10</v>
@@ -3291,10 +3291,10 @@
         <v>12</v>
       </c>
       <c r="L14" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M14" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>42</v>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>10</v>
@@ -3332,13 +3332,13 @@
         <v>116</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M15" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>42</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>10</v>
@@ -3379,10 +3379,10 @@
         <v>14</v>
       </c>
       <c r="L16" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M16" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>42</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>10</v>
@@ -3420,13 +3420,13 @@
         <v>116</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M17" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>42</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>10</v>
@@ -3467,10 +3467,10 @@
         <v>13</v>
       </c>
       <c r="L18" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M18" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>42</v>
@@ -3490,10 +3490,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6">
-        <v>1210</v>
+        <v>2330</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
@@ -3505,19 +3505,19 @@
         <v>10</v>
       </c>
       <c r="J19" s="6">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7">
-        <v>0.5625</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M19" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>42</v>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N19" s="8">
+        <v>20018126</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3534,10 +3534,10 @@
         <v>40</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F20" s="6">
-        <v>2330</v>
+        <v>2160</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
@@ -3549,150 +3549,150 @@
         <v>10</v>
       </c>
       <c r="J20" s="6">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="M20" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N20" s="8">
-        <v>20018126</v>
+        <v>20009100</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="10">
         <v>2160</v>
       </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10">
         <v>123</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N21" s="12">
+        <v>20009100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1012</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="3">
+        <v>131</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L22" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="N22" s="13">
+        <v>20053885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1012</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="6">
+        <v>131</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7">
         <v>0.5625</v>
       </c>
-      <c r="M21" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N21" s="8">
-        <v>20009100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10">
-        <v>2160</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="10">
-        <v>123</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="N22" s="12">
-        <v>20009100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1012</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="3">
-        <v>131</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="N23" s="13">
+      <c r="M23" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="N23" s="8">
         <v>20053885</v>
       </c>
     </row>
@@ -3728,13 +3728,13 @@
         <v>131</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7">
-        <v>0.5625</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M24" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N24" s="8">
         <v>20053885</v>
@@ -3775,10 +3775,10 @@
         <v>12</v>
       </c>
       <c r="L25" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="M25" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N25" s="8">
         <v>20053885</v>
@@ -3816,13 +3816,13 @@
         <v>131</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M26" s="7">
-        <v>0.6875</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="N26" s="8">
         <v>20053885</v>
@@ -3863,10 +3863,10 @@
         <v>14</v>
       </c>
       <c r="L27" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M27" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.6875</v>
       </c>
       <c r="N27" s="8">
         <v>20053885</v>
@@ -3904,13 +3904,13 @@
         <v>131</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M28" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N28" s="8">
         <v>20053885</v>
@@ -3951,10 +3951,10 @@
         <v>13</v>
       </c>
       <c r="L29" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M29" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N29" s="8">
         <v>20053885</v>
@@ -3974,10 +3974,10 @@
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F30" s="6">
-        <v>1012</v>
+        <v>1760</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
@@ -3986,22 +3986,22 @@
         <v>1</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J30" s="6">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="M30" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N30" s="8">
-        <v>20053885</v>
+        <v>20009100</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4036,13 +4036,13 @@
         <v>123</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L31" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M31" s="7">
         <v>0.4375</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0.52083333333333337</v>
       </c>
       <c r="N31" s="8">
         <v>20009100</v>
@@ -4062,10 +4062,10 @@
         <v>29</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F32" s="6">
-        <v>1760</v>
+        <v>1120</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
@@ -4077,150 +4077,148 @@
         <v>10</v>
       </c>
       <c r="J32" s="6">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N32" s="8">
+        <v>20018126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1120</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="10">
+        <v>106</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L33" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N33" s="12">
+        <v>20018126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1072</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="3">
+        <v>130</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="M32" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="N32" s="8">
-        <v>20009100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1120</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
-        <v>106</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N33" s="8">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1120</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="10">
-        <v>106</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="M34" s="11">
+      <c r="M34" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N34" s="12">
-        <v>20018126</v>
-      </c>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="6">
         <v>1072</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="6">
         <v>130</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N35" s="13"/>
+      <c r="L35" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
@@ -4254,13 +4252,13 @@
         <v>130</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L36" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M36" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N36" s="8"/>
     </row>
@@ -4299,10 +4297,10 @@
         <v>12</v>
       </c>
       <c r="L37" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M37" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N37" s="8"/>
     </row>
@@ -4338,13 +4336,13 @@
         <v>130</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L38" s="7">
-        <v>0.5625</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="M38" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N38" s="8"/>
     </row>
@@ -4383,10 +4381,10 @@
         <v>14</v>
       </c>
       <c r="L39" s="7">
-        <v>0.39583333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="M39" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N39" s="8"/>
     </row>
@@ -4422,13 +4420,13 @@
         <v>130</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L40" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M40" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N40" s="8"/>
     </row>
@@ -4467,10 +4465,10 @@
         <v>13</v>
       </c>
       <c r="L41" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M41" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N41" s="8"/>
     </row>
@@ -4488,10 +4486,10 @@
         <v>46</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F42" s="6">
-        <v>1072</v>
+        <v>1230</v>
       </c>
       <c r="G42" s="6">
         <v>1</v>
@@ -4500,21 +4498,23 @@
         <v>1</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J42" s="6">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L42" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M42" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="N42" s="8"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N42" s="8">
+        <v>20018126</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
@@ -4548,7 +4548,7 @@
         <v>106</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L43" s="7">
         <v>0.35416666666666669</v>
@@ -4561,134 +4561,134 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="A44" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1230</v>
-      </c>
-      <c r="G44" s="6">
-        <v>1</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="6">
-        <v>106</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="7">
+      <c r="E44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1060</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="10">
+        <v>123</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="N44" s="12">
+        <v>20018126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1096</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="3">
+        <v>135</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M44" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="N44" s="8">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1060</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10" t="s">
+      <c r="M45" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1096</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="10">
-        <v>123</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="11">
+      <c r="J46" s="6">
+        <v>135</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M46" s="7">
         <v>0.6875</v>
       </c>
-      <c r="N45" s="12">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1096</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="3">
-        <v>135</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4724,13 +4724,13 @@
         <v>135</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M47" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>49</v>
@@ -4771,10 +4771,10 @@
         <v>12</v>
       </c>
       <c r="L48" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M48" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>49</v>
@@ -4812,13 +4812,13 @@
         <v>135</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L49" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M49" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>49</v>
@@ -4859,10 +4859,10 @@
         <v>14</v>
       </c>
       <c r="L50" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M50" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>49</v>
@@ -4900,13 +4900,13 @@
         <v>135</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L51" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M51" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>49</v>
@@ -4947,10 +4947,10 @@
         <v>13</v>
       </c>
       <c r="L52" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M52" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>49</v>
@@ -4970,10 +4970,10 @@
         <v>48</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F53" s="6">
-        <v>1096</v>
+        <v>1320</v>
       </c>
       <c r="G53" s="6">
         <v>1</v>
@@ -4982,153 +4982,153 @@
         <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J53" s="6">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7">
         <v>0.5625</v>
       </c>
       <c r="M53" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>49</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N53" s="8">
+        <v>20018126</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="A54" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="10">
         <v>1320</v>
       </c>
-      <c r="G54" s="6">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6">
-        <v>1</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10">
+        <v>1</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="10">
         <v>106</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N54" s="12">
+        <v>20018126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2230</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N54" s="8">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1320</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="10">
-        <v>106</v>
-      </c>
-      <c r="K55" s="10" t="s">
+      <c r="L55" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N55" s="13">
+        <v>195001979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2230</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L55" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="M55" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="N55" s="12">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2230</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="4">
+      <c r="L56" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M56" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N56" s="13">
+      <c r="M56" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="N56" s="8">
         <v>195001979</v>
       </c>
     </row>
@@ -5149,13 +5149,13 @@
         <v>33</v>
       </c>
       <c r="F57" s="6">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="G57" s="6">
         <v>1</v>
       </c>
       <c r="H57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>10</v>
@@ -5163,14 +5163,14 @@
       <c r="J57" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>14</v>
+      <c r="K57" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="L57" s="7">
         <v>0.35416666666666669</v>
       </c>
       <c r="M57" s="7">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N57" s="8">
         <v>195001979</v>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>10</v>
@@ -5207,14 +5207,14 @@
       <c r="J58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>11</v>
+      <c r="K58" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="L58" s="7">
         <v>0.35416666666666669</v>
       </c>
       <c r="M58" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="N58" s="8">
         <v>195001979</v>
@@ -5237,7 +5237,7 @@
         <v>33</v>
       </c>
       <c r="F59" s="6">
-        <v>2231</v>
+        <v>2260</v>
       </c>
       <c r="G59" s="6">
         <v>1</v>
@@ -5248,17 +5248,17 @@
       <c r="I59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>50</v>
+      <c r="J59" s="6">
+        <v>102</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L59" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M59" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N59" s="8">
         <v>195001979</v>
@@ -5299,10 +5299,10 @@
         <v>11</v>
       </c>
       <c r="L60" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M60" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N60" s="8">
         <v>195001979</v>
@@ -5340,13 +5340,13 @@
         <v>102</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L61" s="7">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="M61" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N61" s="8">
         <v>195001979</v>
@@ -5384,13 +5384,13 @@
         <v>102</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L62" s="7">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="M62" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N62" s="8">
         <v>195001979</v>
@@ -5410,10 +5410,10 @@
         <v>32</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F63" s="6">
-        <v>2260</v>
+        <v>1240</v>
       </c>
       <c r="G63" s="6">
         <v>1</v>
@@ -5428,10 +5428,10 @@
         <v>102</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L63" s="7">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="M63" s="7">
         <v>0.64583333333333337</v>
@@ -5472,13 +5472,13 @@
         <v>102</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L64" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="M64" s="7">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0.64583333333333337</v>
       </c>
       <c r="N64" s="8">
         <v>195001979</v>
@@ -5498,10 +5498,10 @@
         <v>32</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F65" s="6">
-        <v>1240</v>
+        <v>3250</v>
       </c>
       <c r="G65" s="6">
         <v>1</v>
@@ -5516,13 +5516,13 @@
         <v>102</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L65" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M65" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="N65" s="8">
         <v>195001979</v>
@@ -5560,7 +5560,7 @@
         <v>102</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" s="7">
         <v>0.35416666666666669</v>
@@ -5586,10 +5586,10 @@
         <v>32</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F67" s="6">
-        <v>3250</v>
+        <v>1241</v>
       </c>
       <c r="G67" s="6">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>102</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L67" s="7">
         <v>0.35416666666666669</v>
@@ -5613,7 +5613,7 @@
         <v>0.4375</v>
       </c>
       <c r="N67" s="8">
-        <v>195001979</v>
+        <v>20009100</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>102</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L68" s="7">
         <v>0.35416666666666669</v>
@@ -5674,10 +5674,10 @@
         <v>32</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F69" s="6">
-        <v>1241</v>
+        <v>2250</v>
       </c>
       <c r="G69" s="6">
         <v>1</v>
@@ -5692,16 +5692,16 @@
         <v>102</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L69" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="M69" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N69" s="8">
-        <v>20009100</v>
+        <v>195001979</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5718,10 +5718,10 @@
         <v>32</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F70" s="6">
-        <v>2250</v>
+        <v>1400</v>
       </c>
       <c r="G70" s="6">
         <v>1</v>
@@ -5739,10 +5739,10 @@
         <v>12</v>
       </c>
       <c r="L70" s="7">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="M70" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N70" s="8">
         <v>195001979</v>
@@ -5780,111 +5780,111 @@
         <v>102</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L71" s="7">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M71" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N71" s="8">
         <v>195001979</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="A72" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" s="6">
-        <v>1400</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="6">
+      <c r="E72" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1230</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10">
+        <v>1</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="10">
         <v>102</v>
       </c>
-      <c r="K72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="M72" s="7">
+      <c r="K72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N72" s="12">
+        <v>195001979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1410</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="3">
+        <v>115</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M73" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N72" s="8">
-        <v>195001979</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1230</v>
-      </c>
-      <c r="G73" s="10">
-        <v>1</v>
-      </c>
-      <c r="H73" s="10">
-        <v>1</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J73" s="10">
-        <v>102</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L73" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="M73" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N73" s="12">
-        <v>195001979</v>
+      <c r="N73" s="13">
+        <v>20058027</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -5893,34 +5893,34 @@
       <c r="D74" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="6">
         <v>1410</v>
       </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="G74" s="6">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="6">
         <v>115</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M74" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N74" s="13">
+      <c r="L74" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="N74" s="8">
         <v>20058027</v>
       </c>
     </row>
@@ -5944,7 +5944,7 @@
         <v>1410</v>
       </c>
       <c r="G75" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
@@ -5956,13 +5956,13 @@
         <v>115</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L75" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M75" s="7">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="N75" s="8">
         <v>20058027</v>
@@ -5988,7 +5988,7 @@
         <v>1410</v>
       </c>
       <c r="G76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="6">
         <v>1</v>
@@ -6003,10 +6003,10 @@
         <v>12</v>
       </c>
       <c r="L76" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M76" s="7">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="N76" s="8">
         <v>20058027</v>
@@ -6032,7 +6032,7 @@
         <v>1410</v>
       </c>
       <c r="G77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="6">
         <v>1</v>
@@ -6044,13 +6044,13 @@
         <v>115</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L77" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M77" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N77" s="8">
         <v>20058027</v>
@@ -6076,7 +6076,7 @@
         <v>1410</v>
       </c>
       <c r="G78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="6">
         <v>1</v>
@@ -6091,10 +6091,10 @@
         <v>14</v>
       </c>
       <c r="L78" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M78" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N78" s="8">
         <v>20058027</v>
@@ -6120,7 +6120,7 @@
         <v>1410</v>
       </c>
       <c r="G79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="6">
         <v>1</v>
@@ -6132,13 +6132,13 @@
         <v>115</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L79" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M79" s="7">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="N79" s="8">
         <v>20058027</v>
@@ -6164,7 +6164,7 @@
         <v>1410</v>
       </c>
       <c r="G80" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="6">
         <v>1</v>
@@ -6179,10 +6179,10 @@
         <v>13</v>
       </c>
       <c r="L80" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M80" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N80" s="8">
         <v>20058027</v>
@@ -6208,7 +6208,7 @@
         <v>1410</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="6">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         <v>13</v>
       </c>
       <c r="L81" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M81" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N81" s="8">
         <v>20058027</v>
@@ -6249,13 +6249,13 @@
         <v>41</v>
       </c>
       <c r="F82" s="6">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>10</v>
@@ -6264,13 +6264,13 @@
         <v>115</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L82" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M82" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N82" s="8">
         <v>20058027</v>
@@ -6296,10 +6296,10 @@
         <v>1411</v>
       </c>
       <c r="G83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>10</v>
@@ -6311,10 +6311,10 @@
         <v>11</v>
       </c>
       <c r="L83" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M83" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N83" s="8">
         <v>20058027</v>
@@ -6340,10 +6340,10 @@
         <v>1411</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>10</v>
@@ -6352,13 +6352,13 @@
         <v>115</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L84" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M84" s="7">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="N84" s="8">
         <v>20058027</v>
@@ -6384,10 +6384,10 @@
         <v>1411</v>
       </c>
       <c r="G85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>10</v>
@@ -6399,10 +6399,10 @@
         <v>12</v>
       </c>
       <c r="L85" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M85" s="7">
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="N85" s="8">
         <v>20058027</v>
@@ -6428,10 +6428,10 @@
         <v>1411</v>
       </c>
       <c r="G86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>10</v>
@@ -6440,13 +6440,13 @@
         <v>115</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L86" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M86" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N86" s="8">
         <v>20058027</v>
@@ -6472,10 +6472,10 @@
         <v>1411</v>
       </c>
       <c r="G87" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>10</v>
@@ -6487,10 +6487,10 @@
         <v>14</v>
       </c>
       <c r="L87" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M87" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N87" s="8">
         <v>20058027</v>
@@ -6516,10 +6516,10 @@
         <v>1411</v>
       </c>
       <c r="G88" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>10</v>
@@ -6528,13 +6528,13 @@
         <v>115</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L88" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M88" s="7">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="N88" s="8">
         <v>20058027</v>
@@ -6560,10 +6560,10 @@
         <v>1411</v>
       </c>
       <c r="G89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>10</v>
@@ -6575,10 +6575,10 @@
         <v>13</v>
       </c>
       <c r="L89" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M89" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N89" s="8">
         <v>20058027</v>
@@ -6604,10 +6604,10 @@
         <v>1411</v>
       </c>
       <c r="G90" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>10</v>
@@ -6619,10 +6619,10 @@
         <v>13</v>
       </c>
       <c r="L90" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M90" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N90" s="8">
         <v>20058027</v>
@@ -6642,13 +6642,13 @@
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F91" s="6">
-        <v>1411</v>
+        <v>2160</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="6">
         <v>1</v>
@@ -6657,19 +6657,19 @@
         <v>10</v>
       </c>
       <c r="J91" s="6">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" s="7">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="M91" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N91" s="8">
-        <v>20058027</v>
+        <v>20009100</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
         <v>2160</v>
       </c>
       <c r="G92" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -6704,111 +6704,109 @@
         <v>123</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L92" s="7">
         <v>0.4375</v>
       </c>
       <c r="M92" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N92" s="8">
         <v>20009100</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" s="6" t="s">
+      <c r="A93" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="6">
-        <v>2160</v>
-      </c>
-      <c r="G93" s="6">
-        <v>1</v>
-      </c>
-      <c r="H93" s="6">
-        <v>1</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" s="6">
-        <v>123</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L93" s="7">
-        <v>0.4375</v>
-      </c>
-      <c r="M93" s="7">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="N93" s="8">
-        <v>20009100</v>
+      <c r="E93" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="10">
+        <v>2330</v>
+      </c>
+      <c r="G93" s="10">
+        <v>2</v>
+      </c>
+      <c r="H93" s="10">
+        <v>1</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="10">
+        <v>106</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="M93" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N93" s="12">
+        <v>20018126</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="A94" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F94" s="10">
-        <v>2330</v>
-      </c>
-      <c r="G94" s="10">
-        <v>1</v>
-      </c>
-      <c r="H94" s="10">
-        <v>1</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="10">
-        <v>106</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L94" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="M94" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N94" s="12">
-        <v>20018126</v>
-      </c>
+      <c r="E94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1310</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3">
+        <v>121</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -6817,34 +6815,34 @@
       <c r="D95" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="6">
         <v>1310</v>
       </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="G95" s="6">
+        <v>3</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="6">
         <v>121</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L95" s="4">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M95" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N95" s="13"/>
+      <c r="L95" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -6866,7 +6864,7 @@
         <v>1310</v>
       </c>
       <c r="G96" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="6">
         <v>1</v>
@@ -6878,13 +6876,13 @@
         <v>121</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L96" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M96" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N96" s="8"/>
     </row>
@@ -6908,7 +6906,7 @@
         <v>1310</v>
       </c>
       <c r="G97" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="6">
         <v>1</v>
@@ -6923,10 +6921,10 @@
         <v>12</v>
       </c>
       <c r="L97" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M97" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N97" s="8"/>
     </row>
@@ -6950,7 +6948,7 @@
         <v>1310</v>
       </c>
       <c r="G98" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="6">
         <v>1</v>
@@ -6962,13 +6960,13 @@
         <v>121</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L98" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M98" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N98" s="8"/>
     </row>
@@ -6992,7 +6990,7 @@
         <v>1310</v>
       </c>
       <c r="G99" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="6">
         <v>1</v>
@@ -7007,10 +7005,10 @@
         <v>14</v>
       </c>
       <c r="L99" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M99" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N99" s="8"/>
     </row>
@@ -7034,7 +7032,7 @@
         <v>1310</v>
       </c>
       <c r="G100" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" s="6">
         <v>1</v>
@@ -7046,13 +7044,13 @@
         <v>121</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L100" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M100" s="7">
-        <v>0.6875</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N100" s="8"/>
     </row>
@@ -7076,7 +7074,7 @@
         <v>1310</v>
       </c>
       <c r="G101" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="6">
         <v>1</v>
@@ -7091,10 +7089,10 @@
         <v>13</v>
       </c>
       <c r="L101" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M101" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="N101" s="8"/>
     </row>
@@ -7115,13 +7113,13 @@
         <v>41</v>
       </c>
       <c r="F102" s="6">
-        <v>1310</v>
+        <v>1131</v>
       </c>
       <c r="G102" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>10</v>
@@ -7130,13 +7128,13 @@
         <v>121</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L102" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M102" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N102" s="8"/>
     </row>
@@ -7160,10 +7158,10 @@
         <v>1131</v>
       </c>
       <c r="G103" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>10</v>
@@ -7175,10 +7173,10 @@
         <v>11</v>
       </c>
       <c r="L103" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M103" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N103" s="8"/>
     </row>
@@ -7202,10 +7200,10 @@
         <v>1131</v>
       </c>
       <c r="G104" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>10</v>
@@ -7214,13 +7212,13 @@
         <v>121</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L104" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M104" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N104" s="8"/>
     </row>
@@ -7244,10 +7242,10 @@
         <v>1131</v>
       </c>
       <c r="G105" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>10</v>
@@ -7259,10 +7257,10 @@
         <v>12</v>
       </c>
       <c r="L105" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M105" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N105" s="8"/>
     </row>
@@ -7286,10 +7284,10 @@
         <v>1131</v>
       </c>
       <c r="G106" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>10</v>
@@ -7298,13 +7296,13 @@
         <v>121</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L106" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M106" s="7">
-        <v>0.6875</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N106" s="8"/>
     </row>
@@ -7328,10 +7326,10 @@
         <v>1131</v>
       </c>
       <c r="G107" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>10</v>
@@ -7343,10 +7341,10 @@
         <v>14</v>
       </c>
       <c r="L107" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M107" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="N107" s="8"/>
     </row>
@@ -7370,10 +7368,10 @@
         <v>1131</v>
       </c>
       <c r="G108" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H108" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>10</v>
@@ -7382,13 +7380,13 @@
         <v>121</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L108" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M108" s="7">
-        <v>0.6875</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="N108" s="8"/>
     </row>
@@ -7412,10 +7410,10 @@
         <v>1131</v>
       </c>
       <c r="G109" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>10</v>
@@ -7427,10 +7425,10 @@
         <v>13</v>
       </c>
       <c r="L109" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M109" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.6875</v>
       </c>
       <c r="N109" s="8"/>
     </row>
@@ -7448,13 +7446,13 @@
         <v>40</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F110" s="6">
-        <v>1131</v>
+        <v>2330</v>
       </c>
       <c r="G110" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" s="6">
         <v>1</v>
@@ -7463,18 +7461,20 @@
         <v>10</v>
       </c>
       <c r="J110" s="6">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L110" s="7">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="M110" s="7">
-        <v>0.6875</v>
-      </c>
-      <c r="N110" s="8"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N110" s="8">
+        <v>20018126</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
@@ -7490,13 +7490,13 @@
         <v>40</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" s="6">
-        <v>2330</v>
+        <v>1760</v>
       </c>
       <c r="G111" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" s="6">
         <v>1</v>
@@ -7505,114 +7505,114 @@
         <v>10</v>
       </c>
       <c r="J111" s="6">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L111" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N111" s="8">
+        <v>20009100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1760</v>
+      </c>
+      <c r="G112" s="10">
+        <v>3</v>
+      </c>
+      <c r="H112" s="10">
+        <v>1</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" s="10">
+        <v>123</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N112" s="12">
+        <v>20009100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="3">
+        <v>2101</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M113" s="4">
         <v>0.4375</v>
       </c>
-      <c r="M111" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N111" s="8">
-        <v>20018126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F112" s="6">
-        <v>1760</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J112" s="6">
-        <v>123</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L112" s="7">
-        <v>0.5625</v>
-      </c>
-      <c r="M112" s="7">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N112" s="8">
-        <v>20009100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="10">
-        <v>1760</v>
-      </c>
-      <c r="G113" s="10">
-        <v>1</v>
-      </c>
-      <c r="H113" s="10">
-        <v>1</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J113" s="10">
-        <v>123</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L113" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="M113" s="11">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N113" s="12">
-        <v>20009100</v>
+      <c r="N113" s="13">
+        <v>20004139</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>1171</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="A114" s="5">
+        <v>1171</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -7621,34 +7621,34 @@
       <c r="D114" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="6">
         <v>2101</v>
       </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="3">
-        <v>1</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J114" s="3" t="s">
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+      <c r="H114" s="6">
+        <v>1</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L114" s="4">
+      <c r="K114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M114" s="4">
+      <c r="M114" s="7">
         <v>0.4375</v>
       </c>
-      <c r="N114" s="13">
+      <c r="N114" s="8">
         <v>20004139</v>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
         <v>36</v>
       </c>
       <c r="F115" s="6">
-        <v>2101</v>
+        <v>1101</v>
       </c>
       <c r="G115" s="6">
         <v>1</v>
@@ -7684,13 +7684,13 @@
         <v>50</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L115" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M115" s="7">
-        <v>0.4375</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N115" s="8">
         <v>20004139</v>
@@ -7728,10 +7728,10 @@
         <v>50</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L116" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="M116" s="7">
         <v>0.52083333333333337</v>
@@ -7754,10 +7754,10 @@
         <v>23</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F117" s="6">
-        <v>1101</v>
+        <v>2100</v>
       </c>
       <c r="G117" s="6">
         <v>1</v>
@@ -7772,13 +7772,13 @@
         <v>50</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L117" s="7">
-        <v>0.4375</v>
+        <v>0.5625</v>
       </c>
       <c r="M117" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="N117" s="8">
         <v>20004139</v>
@@ -7816,13 +7816,13 @@
         <v>50</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L118" s="7">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="M118" s="7">
-        <v>0.60416666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N118" s="8">
         <v>20004139</v>
@@ -7860,13 +7860,13 @@
         <v>50</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L119" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="M119" s="7">
-        <v>0.52083333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="N119" s="8">
         <v>20004139</v>
@@ -7886,10 +7886,10 @@
         <v>23</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F120" s="6">
-        <v>2100</v>
+        <v>2640</v>
       </c>
       <c r="G120" s="6">
         <v>1</v>
@@ -7904,7 +7904,7 @@
         <v>50</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L120" s="7">
         <v>0.5625</v>
@@ -7948,13 +7948,13 @@
         <v>50</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L121" s="7">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="M121" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="N121" s="8">
         <v>20004139</v>
@@ -7974,10 +7974,10 @@
         <v>23</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F122" s="6">
-        <v>2640</v>
+        <v>2100</v>
       </c>
       <c r="G122" s="6">
         <v>1</v>
@@ -7995,100 +7995,56 @@
         <v>13</v>
       </c>
       <c r="L122" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="M122" s="7">
         <v>0.4375</v>
-      </c>
-      <c r="M122" s="7">
-        <v>0.52083333333333337</v>
       </c>
       <c r="N122" s="8">
         <v>20004139</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>1171</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="A123" s="9">
+        <v>1171</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F123" s="6">
-        <v>2100</v>
-      </c>
-      <c r="G123" s="6">
-        <v>1</v>
-      </c>
-      <c r="H123" s="6">
-        <v>1</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J123" s="6" t="s">
+      <c r="F123" s="10">
+        <v>2700</v>
+      </c>
+      <c r="G123" s="10">
+        <v>1</v>
+      </c>
+      <c r="H123" s="10">
+        <v>1</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K123" s="6" t="s">
+      <c r="K123" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L123" s="7">
+      <c r="L123" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="M123" s="7">
+      <c r="M123" s="11">
         <v>0.4375</v>
       </c>
-      <c r="N123" s="8">
-        <v>20004139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>1171</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="10">
-        <v>2700</v>
-      </c>
-      <c r="G124" s="10">
-        <v>1</v>
-      </c>
-      <c r="H124" s="10">
-        <v>1</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J124" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K124" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L124" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="M124" s="11">
-        <v>0.4375</v>
-      </c>
-      <c r="N124" s="12">
+      <c r="N123" s="12">
         <v>20004139</v>
       </c>
     </row>

--- a/PB Done.xlsx
+++ b/PB Done.xlsx
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3625,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="3">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -3633,8 +3633,8 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>30</v>
+      <c r="I22" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>131</v>
@@ -3669,7 +3669,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J23" s="6">
         <v>131</v>
@@ -3713,7 +3713,7 @@
         <v>38</v>
       </c>
       <c r="F24" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J24" s="6">
         <v>131</v>
@@ -3757,7 +3757,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6">
         <v>131</v>
@@ -3801,7 +3801,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J26" s="6">
         <v>131</v>
@@ -3845,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J27" s="6">
         <v>131</v>
@@ -3889,7 +3889,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J28" s="6">
         <v>131</v>
@@ -3933,7 +3933,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="6">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6">
         <v>131</v>
@@ -4153,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="F34" s="3">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -4161,8 +4161,8 @@
       <c r="H34" s="3">
         <v>1</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>30</v>
+      <c r="I34" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J34" s="3">
         <v>130</v>
@@ -4195,7 +4195,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J35" s="6">
         <v>130</v>
@@ -4237,7 +4237,7 @@
         <v>38</v>
       </c>
       <c r="F36" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J36" s="6">
         <v>130</v>
@@ -4279,7 +4279,7 @@
         <v>38</v>
       </c>
       <c r="F37" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
@@ -4288,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J37" s="6">
         <v>130</v>
@@ -4321,7 +4321,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J38" s="6">
         <v>130</v>
@@ -4363,7 +4363,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G39" s="6">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J39" s="6">
         <v>130</v>
@@ -4405,7 +4405,7 @@
         <v>38</v>
       </c>
       <c r="F40" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G40" s="6">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J40" s="6">
         <v>130</v>
@@ -4447,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G41" s="6">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J41" s="6">
         <v>130</v>
@@ -4621,7 +4621,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="3">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -4665,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="F46" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G46" s="6">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G47" s="6">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>38</v>
       </c>
       <c r="F48" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G48" s="6">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>38</v>
       </c>
       <c r="F49" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G49" s="6">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>38</v>
       </c>
       <c r="F50" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G50" s="6">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>38</v>
       </c>
       <c r="F51" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G51" s="6">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>38</v>
       </c>
       <c r="F52" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G52" s="6">
         <v>1</v>
